--- a/Test case/Getting a loan - Test Case.xlsx
+++ b/Test case/Getting a loan - Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\UiPath\SOA APP Project\SOA-APP\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BDD09B-85DD-42E2-A554-96FBDD28C8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D4213F-759B-496E-AD94-293688B241A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8928" xr2:uid="{7C0108EA-3E49-4E06-8F48-F8903EF7AA47}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -83,15 +83,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>a cookie pop up will appear, a check state activity should be coded and click accept if it appears</t>
-  </si>
-  <si>
-    <t>uipath accept cookie</t>
-  </si>
-  <si>
-    <t>cookie pop up will appear when connecting to challenge site</t>
-  </si>
-  <si>
     <t>UiPath will connect to the correct excel file (accounts.xlsx), use an excel application scope for each loop.</t>
   </si>
   <si>
@@ -108,6 +99,24 @@
   </si>
   <si>
     <t>Try catch set up and throws error when this occurs</t>
+  </si>
+  <si>
+    <t>Connect to cloud app URL "https://cloud.uipath.com/schoopdzgyqh/apps_/"</t>
+  </si>
+  <si>
+    <t>Uipath attempts to connect using Activity</t>
+  </si>
+  <si>
+    <t>UiPath successful connects</t>
+  </si>
+  <si>
+    <t>UiPath successfully connects</t>
+  </si>
+  <si>
+    <t>Attempts connection</t>
+  </si>
+  <si>
+    <t>Attempts to connect to cloud app in ig</t>
   </si>
 </sst>
 </file>
@@ -927,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B75E3D7-8987-4241-9F7D-99F398BE6028}">
   <dimension ref="A5:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,13 +1007,13 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
@@ -1029,13 +1038,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>14</v>
@@ -1070,26 +1079,50 @@
       <c r="J8" s="4"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14">
+        <v>45257</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14">
+        <v>45257</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="11"/>
@@ -1109,26 +1142,14 @@
       <c r="J11" s="12"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="17">
-        <v>45257</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -1171,6 +1192,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FAAA268A31646343949E4BBB862FF5B3" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="852bdb4940f6b07f6b8967b6d4fe7d29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="256fead4-ca55-4349-92ae-57c8c3b95f59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b463c3f920cd8ce919c1a1fd0a8d9c71" ns2:_="">
     <xsd:import namespace="256fead4-ca55-4349-92ae-57c8c3b95f59"/>
@@ -1334,12 +1361,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1350,6 +1371,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EDB1C6A-3CCC-4CD2-AA55-EECDE1080CD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F63DF1DF-4F06-406D-9167-0E0A6B3BF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1367,15 +1397,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EDB1C6A-3CCC-4CD2-AA55-EECDE1080CD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC82C0D4-4BAF-4568-9CBF-2CC44E51C4A5}">
   <ds:schemaRefs>
